--- a/fuentes/contenidos/grado08/guion09/SolicitudGrafica_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/SolicitudGrafica_MA_08_09_CO.xlsx
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="219">
   <si>
     <t>Fecha:</t>
   </si>
@@ -629,73 +629,77 @@
     <t>Dejar un espacio entre el número y el símbolo de centímetros, el símbolo de centímetros (cm) debe estar en minúscula y sin cursiva.</t>
   </si>
   <si>
-    <t>Letras en cursiva, la letra a en minúscula es la medida del segmento, agregar cotas, las mayúsculas son los nombres de los puntos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar a la imagen el dibujo de un compás que represente el trazo de la circunferencia.
-Se supone que la recta BC mide 5 cm, el radio de la circunferencia con centro en B mide 7 cm
-Agregar a la imagen el dibujo de un compás que represente el trazo de la circunferencia.
-Se supone que la recta BC mide 5 cm, el radio de la circunferencia con centro en B mide 7 cm
-Agregar a la imagen el dibujo de un compás que represente el trazo de la circunferencia.
-Se supone que la recta BC mide 5 cm, el radio de la circunferencia con centro en B mide 7 cm
+    <t>Los triángulos y los cuadrilateros</t>
+  </si>
+  <si>
+    <t>Las letras deben estar en cursiva, las mayúsculas son los nombres de los puntos, las letras minúsculas son la medida de los lados por favor agregar cotas.</t>
+  </si>
+  <si>
+    <t>Dejar las letras en cursiva, tener cuidado de dejar las mismas letras griegas.</t>
+  </si>
+  <si>
+    <t>Dejar las letras en cursiva y mayúscula.</t>
+  </si>
+  <si>
+    <t>letras en cursiva, tener cuidad con la línea roja que se resalta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letras en cursiva, tener cuidado con la línea roja que se resalta </t>
+  </si>
+  <si>
+    <t>letras en cursiva, tener cuidad con las líneas rojas que se resaltan</t>
+  </si>
+  <si>
+    <t>Por favor agregar a la recta que pasa por le punto p el nombre: l, en cursiva y minúscula.</t>
+  </si>
+  <si>
+    <t>Por favor agregar nombres a los puntos azules, los nombres deben ser A y B en mayúscula y cursiva.</t>
+  </si>
+  <si>
+    <t>Dejar los mismos nombres a los vértices de cada figuras (en mayúscula y cursiva).</t>
+  </si>
+  <si>
+    <t>icono de guion</t>
+  </si>
+  <si>
+    <t>es el icono de guion</t>
+  </si>
+  <si>
+    <t>El codigo en la  carepta de recursos generales es: MT_3C_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver observaciones
 </t>
   </si>
   <si>
-    <t>Los triángulos y los cuadrilateros</t>
-  </si>
-  <si>
-    <t>Agregar a la imagen un compás que muestre el trazo de la circunferencia con centro en C. La circunferencia pequeña tiene el centro en el punto C y su radio es de 4 cm.</t>
-  </si>
-  <si>
-    <t>De la imagen anterior se trazan los segmentos AB y AC. Las letras minúsculas son las medidas de los lados por favor agregar cotas.</t>
-  </si>
-  <si>
-    <t>Las letras deben estar en cursiva, las mayúsculas son los nombres de los puntos, la letra minúscula es la medida del segmento, agregar cotas.</t>
-  </si>
-  <si>
-    <t>Agregar a la imagen un compás que muestre el trazo de la circunferencia con centro en A y otro que muestre el trazo de la circunferencia con centro en B.</t>
-  </si>
-  <si>
-    <t>Las letras mayúsculas son nombres de puntos, las letras minúsculas son las medidas de los lados por favor agregar las cotas.</t>
-  </si>
-  <si>
-    <t>Las letras deben estar en cursiva, las mayúsculas son los nombres de los puntos, las letras minúsculas son la medida de los lados por favor agregar cotas.</t>
-  </si>
-  <si>
-    <t>Poner la letra γ para identificar el ángulo de ese vértice, dejar todas las letras en cursiva.</t>
-  </si>
-  <si>
-    <t>Dejar las letras en cursiva, tener cuidado de dejar las mismas letras griegas.</t>
-  </si>
-  <si>
-    <t>Dejar las letras en cursiva y mayúscula.</t>
-  </si>
-  <si>
-    <t>letras en cursiva, tener cuidad con la línea roja que se resalta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">letras en cursiva, tener cuidado con la línea roja que se resalta </t>
-  </si>
-  <si>
-    <t>letras en cursiva, tener cuidad con las líneas rojas que se resaltan</t>
-  </si>
-  <si>
-    <t>Por favor agregar a la recta que pasa por le punto p el nombre: l, en cursiva y minúscula.</t>
-  </si>
-  <si>
-    <t>Por favor agregar nombres a los puntos azules, los nombres deben ser A y B en mayúscula y cursiva.</t>
-  </si>
-  <si>
-    <t>Dejar los mismos nombres a los vértices de cada figuras (en mayúscula y cursiva).</t>
-  </si>
-  <si>
-    <t>icono de guion</t>
-  </si>
-  <si>
-    <t>es el icono de guion</t>
-  </si>
-  <si>
-    <t>El codigo en la  carepta de recursos generales es: MT_3C_20</t>
+    <t xml:space="preserve">Letras en cursiva, la letra a en minúscula es la medida del segmento, agregar cotas, las mayúsculas son los nombres de los puntos. Imagen 2: Se supone que la recta BC mide 5 cm, el radio de la circunferencia con centro en B mide 7 cm. Se supone que la recta BC mide 5 cm, el radio de la circunferencia con centro en B mide 7 cm. Se supone que la recta BC mide 5 cm, el radio de la circunferencia con centro en B mide 7 cm,  Imagen 3: La circunferencia pequeña tiene el centro en el punto C y su radio es de 4 cm. Imagen 4: De la imagen anterior se trazan los segmentos AB y AC. Las letras minúsculas son las medidas de los lados por favor agregar cotas. Los pasos para construis son: Primer paso: con la regla vamos a trazar el segmento BC de 5 cm, que represente el lado a.
+Segundo paso: con el compás se hace centro en B y se traza una circunferencia de radio igual a 7 cm.
+Tercer paso: con el compás se hace centro en C y se traza una circunferencia de radio igual a 4 cm; se marca el punto de intersección entre las dos circunferencias y lo llamamos A.
+Cuarto paso: se trazan los segmentos AB y AC, así se forma el ABC, un triángulo escaleno con lados de medidas 5 cm, 7 cm y 4 cm.
+</t>
+  </si>
+  <si>
+    <t>Las letras deben estar en cursiva, las mayúsculas son los nombres de los puntos, la letra minúscula es la medida del segmento, agregar cotas.
+Agregar a la imagen un compás que muestre el trazo de la circunferencia con centro en A y otro que muestre el trazo de la circunferencia con centro en B.
+Las letras mayúsculas son nombres de puntos, las letras minúsculas son las medidas de los lados por favor agregar las cotas.
+Los pasos son: Primer paso: se traza un segmento AB.
+Según paso: con centro en A y radio AB se traza una circunferencia; luego, con centro en B y radio BA se traza otra circunferencia. A uno de los puntos de intersección entre las dos circunferencias lo llamamos C.
+Tercer paso: se trazan los segmentos AC y BC, de esta forma se construye el triángulo equilátero ABC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las instrucciones para construir la figura son: Primer paso: se traza una recta l y sobre ella se ubica el segmento AB.
+Segundo paso: con centro en A se traza una circunferencia de radio menor que AB y se marcan como m y n los puntos de corte de la circunferencia con la recta l.
+Tercer paso: con radio mn se hace centro en m y se traza una circunferencia; después, se lleva a cabo el mismo procedimiento, pero con centro en n; finalmente se marca como k uno de los puntos de corte entre las dos circunferencias.
+Cuarto paso: se traza la recta que pasa por A y k, sobre ella se ubica un punto C y se unen BC para completar el triángulo rectángulo ABC.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los números decimales se deben separar con coma y no con punto, así: AB = 4,77   CB = 8,3 …
+Las letras de los vértices (A,  B,  C)y de la medida de los lados (AB) van en cursivas.
+</t>
+  </si>
+  <si>
+    <t>Poner la letra γ para identificar el ángulo del vértice C, dejar todas las letras en cursiva.</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1917,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>23495</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>515620</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2455545</xdr:rowOff>
     </xdr:to>
@@ -1960,8 +1964,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3379990</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2004060</xdr:rowOff>
     </xdr:to>
@@ -2004,15 +2008,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>103909</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>103230</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>311728</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>2131762</xdr:rowOff>
+          <xdr:rowOff>2133600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2105,8 +2109,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>344459</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11084</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>22514</xdr:rowOff>
     </xdr:to>
@@ -2152,8 +2156,8 @@
       <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>763675</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>430300</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3023754</xdr:rowOff>
     </xdr:to>
@@ -2196,7 +2200,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>147204</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2204,7 +2208,7 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>2685940</xdr:rowOff>
+          <xdr:rowOff>2686050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2250,8 +2254,8 @@
       <xdr:rowOff>233795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>1435215</xdr:rowOff>
     </xdr:to>
@@ -2297,8 +2301,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>147205</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3226955</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>2593340</xdr:rowOff>
     </xdr:to>
@@ -2344,8 +2348,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>732675</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>399300</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1524000</xdr:rowOff>
     </xdr:to>
@@ -2386,19 +2390,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>43757</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>625879</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2200910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPr id="43" name="Imagen 42" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2416,8 +2420,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16365682" y="30852341"/>
-          <a:ext cx="2303780" cy="521970"/>
+          <a:off x="16573500" y="63607950"/>
+          <a:ext cx="4116705" cy="1858010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2433,19 +2437,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>199160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>77932</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2873837</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>680085</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2882265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagen 16" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPr id="44" name="Imagen 43" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2463,431 +2467,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16564842" y="31666296"/>
-          <a:ext cx="2889885" cy="2795905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314210</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2596515</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagen 17" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="34844182"/>
-          <a:ext cx="3405505" cy="2596515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>782262</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2614295</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagen 18" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="37727659"/>
-          <a:ext cx="3042285" cy="2614295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>488892</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>539115</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagen 19" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="40853591"/>
-          <a:ext cx="2748915" cy="539115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>631075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2567305</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagen 21" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="41589614"/>
-          <a:ext cx="3722370" cy="2567305"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>677430</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2555875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagen 22" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="44308568"/>
-          <a:ext cx="3768725" cy="2555875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>97040</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>424815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagen 23" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="47226682"/>
-          <a:ext cx="3188335" cy="424815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>711777</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1081405</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagen 25" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="47902091"/>
-          <a:ext cx="2971800" cy="1081405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>192925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1705610</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Imagen 27" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="49200955"/>
-          <a:ext cx="3284220" cy="1705610"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>669810</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>2344420</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagen 28" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="51253159"/>
-          <a:ext cx="3761105" cy="2344420"/>
+          <a:off x="16535400" y="65817750"/>
+          <a:ext cx="3956685" cy="2710815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2905,356 +2486,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>5010150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2066" name="Object 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2066"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>5064760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagen 33"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16363950" y="58740675"/>
-          <a:ext cx="4705350" cy="5064760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>847725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2068" name="Object 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2068"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>501015</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2593340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Imagen 39" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16363950" y="64903350"/>
-          <a:ext cx="3587115" cy="2593340"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>1609725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2069" name="Object 21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2069"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>195580</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1858010</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16363950" y="69265800"/>
-          <a:ext cx="4110355" cy="1858010"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>35560</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>2710815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Imagen 43" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16363950" y="71361300"/>
-          <a:ext cx="3950335" cy="2710815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>971550</xdr:rowOff>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>1085850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3297,15 +2537,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>1000125</xdr:rowOff>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>1190625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3348,15 +2588,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>1514475</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>1828800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3397,15 +2637,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>1183640</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254635</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1278890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3413,7 +2653,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3427,8 +2667,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="78800325"/>
-          <a:ext cx="3931285" cy="1183640"/>
+          <a:off x="16922750" y="73850500"/>
+          <a:ext cx="3937635" cy="1183640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3444,15 +2684,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>2527300</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2686050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3460,7 +2700,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3474,8 +2714,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="80171925"/>
-          <a:ext cx="2520950" cy="2527300"/>
+          <a:off x="17367250" y="75406250"/>
+          <a:ext cx="2517775" cy="2527300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3491,15 +2731,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2603500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>2540000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>720725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2413000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3507,7 +2747,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3521,8 +2761,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="82943700"/>
-          <a:ext cx="3505200" cy="2540000"/>
+          <a:off x="16986250" y="77851000"/>
+          <a:ext cx="3514725" cy="2540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3538,15 +2778,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2571750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>2520950</xdr:rowOff>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2489200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3554,7 +2794,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3568,8 +2808,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="85839300"/>
-          <a:ext cx="2559050" cy="2520950"/>
+          <a:off x="17621250" y="80549750"/>
+          <a:ext cx="2555875" cy="2520950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3585,14 +2825,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1555750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3601,7 +2841,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3615,8 +2855,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="88525350"/>
-          <a:ext cx="4210050" cy="1555750"/>
+          <a:off x="16795750" y="83121500"/>
+          <a:ext cx="4216400" cy="1555750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3632,14 +2872,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1555750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3648,7 +2888,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3662,8 +2902,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="90477975"/>
-          <a:ext cx="4210050" cy="1555750"/>
+          <a:off x="16986250" y="84836000"/>
+          <a:ext cx="4216400" cy="1555750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3679,15 +2919,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>1337310</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3695,7 +2935,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3709,8 +2949,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="92135325"/>
-          <a:ext cx="3689350" cy="1337310"/>
+          <a:off x="16954500" y="86677500"/>
+          <a:ext cx="3698875" cy="1337310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3726,15 +2966,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1555750</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1651000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3742,7 +2982,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3756,8 +2996,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="93564075"/>
-          <a:ext cx="4210050" cy="1555750"/>
+          <a:off x="16795750" y="87979250"/>
+          <a:ext cx="4216400" cy="1555750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3773,15 +3013,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1365250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>2736850</xdr:rowOff>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2895600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3789,7 +3029,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3803,8 +3043,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="95250000"/>
-          <a:ext cx="2368550" cy="2736850"/>
+          <a:off x="17716500" y="89852500"/>
+          <a:ext cx="2365375" cy="2736850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3820,15 +3060,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>544195</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>1231900</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>591820</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1390650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3836,7 +3076,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3850,8 +3090,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="98164650"/>
-          <a:ext cx="3630295" cy="1231900"/>
+          <a:off x="16732250" y="92964000"/>
+          <a:ext cx="3639820" cy="1231900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3867,15 +3107,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>2312670</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2534920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3883,7 +3123,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3897,8 +3137,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16363950" y="99679125"/>
-          <a:ext cx="2705100" cy="2312670"/>
+          <a:off x="17081500" y="94742000"/>
+          <a:ext cx="2701925" cy="2312670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3916,15 +3156,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>942975</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>1009650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3965,15 +3205,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>777875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>1551940</xdr:rowOff>
+      <xdr:colOff>2587625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1678940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3981,7 +3221,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3995,7 +3235,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16506825" y="103670100"/>
+          <a:off x="17129125" y="98872675"/>
           <a:ext cx="1809750" cy="1485265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4014,15 +3254,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1685925</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>2276475</xdr:rowOff>
+          <xdr:colOff>2638425</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>2533650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4065,15 +3305,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>1571625</xdr:rowOff>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>1695450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4114,15 +3354,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>231775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>1920875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3305175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1857375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4130,7 +3370,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4144,8 +3384,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16440150" y="109661325"/>
-          <a:ext cx="2597150" cy="1625600"/>
+          <a:off x="17062450" y="105356025"/>
+          <a:ext cx="2593975" cy="1625600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4164,14 +3404,14 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
           <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>1343025</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>1219200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4214,15 +3454,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>1943100</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>2133600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4263,14 +3503,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:colOff>2365375</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>1390650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4279,7 +3519,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4293,7 +3533,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000">
-          <a:off x="16840200" y="115814475"/>
+          <a:off x="17335500" y="111198025"/>
           <a:ext cx="1171575" cy="1590675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4307,6 +3547,430 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16446501" y="30765750"/>
+          <a:ext cx="9080500" cy="5205685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5048487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagen 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16516351" y="36118801"/>
+          <a:ext cx="6134100" cy="4972286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5143500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagen 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16554450" y="41281350"/>
+          <a:ext cx="8296275" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>620759</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5010150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Imagen 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16840201" y="46824900"/>
+          <a:ext cx="4430758" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5076825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Imagen 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16459200" y="51701700"/>
+          <a:ext cx="4933950" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>952500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2112" name="Object 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2112"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2802890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagen 68" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16764000" y="58388250"/>
+          <a:ext cx="3596640" cy="2593340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>1847850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2113" name="Object 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2113"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5025,9 +4689,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K63:K64"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5042,7 +4706,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="44.875" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.875" style="2" hidden="1" customWidth="1"/>
@@ -5137,7 +4801,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="87"/>
       <c r="E4" s="5"/>
@@ -5781,13 +5445,13 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5816,15 +5480,15 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="K21" s="66"/>
+        <v>214</v>
+      </c>
+      <c r="K21"/>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG13</v>
@@ -5859,7 +5523,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="K22" s="69"/>
       <c r="O22" s="2" t="str">
@@ -5867,7 +5531,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG14</v>
@@ -5902,7 +5566,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="64" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="K23" s="64"/>
       <c r="O23" s="2" t="str">
@@ -5910,7 +5574,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG15</v>
@@ -5944,16 +5608,14 @@
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="63" t="s">
-        <v>204</v>
-      </c>
+      <c r="J24" s="63"/>
       <c r="K24" s="65"/>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG16</v>
@@ -5987,12 +5649,10 @@
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="63" t="s">
-        <v>205</v>
-      </c>
+      <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG17</v>
@@ -6026,9 +5686,7 @@
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="63" t="s">
-        <v>206</v>
-      </c>
+      <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6065,13 +5723,11 @@
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="64" t="s">
-        <v>207</v>
-      </c>
+      <c r="J27" s="64"/>
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG19</v>
@@ -6108,7 +5764,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG20</v>
@@ -6142,10 +5798,12 @@
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="64"/>
+      <c r="J29" s="64" t="s">
+        <v>201</v>
+      </c>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG21</v>
@@ -6179,10 +5837,12 @@
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="64"/>
+      <c r="J30" s="64" t="s">
+        <v>217</v>
+      </c>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG22</v>
@@ -6219,7 +5879,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="403.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG23</v>
@@ -6256,7 +5916,7 @@
       <c r="J32" s="64"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG24</v>
@@ -6293,7 +5953,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG25</v>
@@ -6365,11 +6025,13 @@
         <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="63"/>
+      <c r="J35" s="63" t="s">
+        <v>218</v>
+      </c>
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG27</v>
@@ -6403,11 +6065,13 @@
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="63"/>
+      <c r="J36" s="63" t="s">
+        <v>202</v>
+      </c>
       <c r="K36"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG28</v>
@@ -6441,12 +6105,10 @@
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J37" s="63" t="s">
-        <v>208</v>
-      </c>
+      <c r="J37" s="63"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG29</v>
@@ -6480,10 +6142,12 @@
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="70"/>
+      <c r="J38" s="70" t="s">
+        <v>203</v>
+      </c>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG30</v>
@@ -6517,7 +6181,9 @@
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="63"/>
+      <c r="J39" s="63" t="s">
+        <v>205</v>
+      </c>
       <c r="K39"/>
     </row>
     <row r="40" spans="1:15" s="11" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6554,7 +6220,9 @@
         <f ca="1">IF(OR($B40&lt;&gt;"",$J40&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J40" s="63"/>
+      <c r="J40" s="63" t="s">
+        <v>204</v>
+      </c>
       <c r="K40"/>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6591,10 +6259,12 @@
         <f ca="1">IF(OR($B41&lt;&gt;"",$J41&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J41" s="63"/>
+      <c r="J41" s="63" t="s">
+        <v>206</v>
+      </c>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG33</v>
@@ -6628,10 +6298,12 @@
         <f ca="1">IF(OR($B42&lt;&gt;"",$J42&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J42" s="63"/>
+      <c r="J42" s="63" t="s">
+        <v>207</v>
+      </c>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG34</v>
@@ -6666,7 +6338,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K43" s="65"/>
     </row>
@@ -6705,11 +6377,11 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J44" s="63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG36</v>
@@ -6780,12 +6452,10 @@
         <f ca="1">IF(OR($B46&lt;&gt;"",$J46&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J46" s="63" t="s">
-        <v>211</v>
-      </c>
+      <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG38</v>
@@ -6819,12 +6489,10 @@
         <f ca="1">IF(OR($B47&lt;&gt;"",$J47&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J47" s="63" t="s">
-        <v>213</v>
-      </c>
+      <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG39</v>
@@ -6858,12 +6526,10 @@
         <f ca="1">IF(OR($B48&lt;&gt;"",$J48&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J48" s="63" t="s">
-        <v>212</v>
-      </c>
+      <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="11" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG40</v>
@@ -6897,12 +6563,10 @@
         <f ca="1">IF(OR($B49&lt;&gt;"",$J49&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J49" s="63" t="s">
-        <v>214</v>
-      </c>
+      <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="11" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG41</v>
@@ -6936,12 +6600,10 @@
         <f ca="1">IF(OR($B50&lt;&gt;"",$J50&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J50" s="63" t="s">
-        <v>215</v>
-      </c>
+      <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v>IMG42</v>
@@ -6975,12 +6637,10 @@
         <f ca="1">IF(OR($B51&lt;&gt;"",$J51&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E51,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E51,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J51" s="63" t="s">
-        <v>216</v>
-      </c>
+      <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="11" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v>IMG43</v>
@@ -7014,9 +6674,7 @@
         <f ca="1">IF(OR($B52&lt;&gt;"",$J52&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E52,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E52,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J52" s="63" t="s">
-        <v>217</v>
-      </c>
+      <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
     <row r="53" spans="1:11" s="11" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7025,7 +6683,7 @@
         <v>IMG44</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C53" s="20" t="str">
         <f t="shared" si="7"/>
@@ -7053,42 +6711,38 @@
         <f ca="1">IF(OR($B53&lt;&gt;"",$J53&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E53,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E53,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J53" s="63"/>
+      <c r="J53" s="63" t="s">
+        <v>212</v>
+      </c>
       <c r="K53"/>
     </row>
     <row r="54" spans="1:11" s="11" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG45</v>
-      </c>
-      <c r="B54" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B54" s="62"/>
       <c r="C54" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D54" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
       <c r="F54" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG45_small</v>
+        <v/>
       </c>
       <c r="G54" s="13" t="str">
         <f ca="1">IF($F54&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E54,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H54" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG45_zoom</v>
+        <v/>
       </c>
       <c r="I54" s="13" t="str">
         <f ca="1">IF(OR($B54&lt;&gt;"",$J54&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E54,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E54,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
@@ -7096,36 +6750,30 @@
     <row r="55" spans="1:11" s="11" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG46</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B55" s="62"/>
       <c r="C55" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D55" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG46_small</v>
+        <v/>
       </c>
       <c r="G55" s="13" t="str">
         <f ca="1">IF($F55&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E55,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H55" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG46_zoom</v>
+        <v/>
       </c>
       <c r="I55" s="13" t="str">
         <f ca="1">IF(OR($B55&lt;&gt;"",$J55&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E55,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E55,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J55" s="63"/>
       <c r="K55"/>
@@ -7133,36 +6781,30 @@
     <row r="56" spans="1:11" s="11" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG47</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B56" s="62"/>
       <c r="C56" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D56" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
       <c r="F56" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG47_small</v>
+        <v/>
       </c>
       <c r="G56" s="13" t="str">
         <f ca="1">IF($F56&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E56,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H56" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG47_zoom</v>
+        <v/>
       </c>
       <c r="I56" s="13" t="str">
         <f ca="1">IF(OR($B56&lt;&gt;"",$J56&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E56,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E56,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J56" s="63"/>
       <c r="K56"/>
@@ -7170,36 +6812,30 @@
     <row r="57" spans="1:11" s="11" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG48</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B57" s="62"/>
       <c r="C57" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D57" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
       <c r="F57" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG48_small</v>
+        <v/>
       </c>
       <c r="G57" s="13" t="str">
         <f ca="1">IF($F57&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E57,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H57" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG48_zoom</v>
+        <v/>
       </c>
       <c r="I57" s="13" t="str">
         <f ca="1">IF(OR($B57&lt;&gt;"",$J57&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E57,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E57,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
@@ -7207,36 +6843,30 @@
     <row r="58" spans="1:11" s="11" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG49</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B58" s="62"/>
       <c r="C58" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D58" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
       <c r="F58" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG49_small</v>
+        <v/>
       </c>
       <c r="G58" s="13" t="str">
         <f ca="1">IF($F58&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E58,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H58" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG49_zoom</v>
+        <v/>
       </c>
       <c r="I58" s="13" t="str">
         <f ca="1">IF(OR($B58&lt;&gt;"",$J58&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E58,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E58,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J58" s="63"/>
       <c r="K58"/>
@@ -7244,36 +6874,30 @@
     <row r="59" spans="1:11" s="11" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG50</v>
-      </c>
-      <c r="B59" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B59" s="62"/>
       <c r="C59" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D59" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
       <c r="F59" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG50_small</v>
+        <v/>
       </c>
       <c r="G59" s="13" t="str">
         <f ca="1">IF($F59&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E59,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H59" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG50_zoom</v>
+        <v/>
       </c>
       <c r="I59" s="13" t="str">
         <f ca="1">IF(OR($B59&lt;&gt;"",$J59&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E59,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E59,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J59" s="63"/>
       <c r="K59"/>
@@ -7281,76 +6905,66 @@
     <row r="60" spans="1:11" s="11" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG51</v>
-      </c>
-      <c r="B60" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B60" s="62"/>
       <c r="C60" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D60" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
       <c r="F60" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG51_small</v>
+        <v/>
       </c>
       <c r="G60" s="13" t="str">
         <f ca="1">IF($F60&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E60,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H60" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG51_zoom</v>
+        <v/>
       </c>
       <c r="I60" s="13" t="str">
         <f ca="1">IF(OR($B60&lt;&gt;"",$J60&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E60,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E60,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="str">
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="e">
         <f t="shared" si="8"/>
-        <v>IMG52</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>218</v>
-      </c>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B61" s="62"/>
       <c r="C61" s="20" t="str">
         <f t="shared" si="7"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
-      <c r="F61" s="13" t="str">
+      <c r="F61" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG52_small</v>
-      </c>
-      <c r="G61" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="13" t="e">
         <f ca="1">IF($F61&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E61,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H61" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG52_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I61" s="13" t="str">
         <f ca="1">IF(OR($B61&lt;&gt;"",$J61&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E61,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E61,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J61" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="K61" s="65" t="s">
-        <v>220</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="K61" s="65"/>
     </row>
     <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
@@ -8931,277 +8545,252 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2066" r:id="rId10">
+        <oleObject progId="PBrush" shapeId="2070" r:id="rId10">
           <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>5010150</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>1085850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2066" r:id="rId10"/>
+        <oleObject progId="PBrush" shapeId="2070" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2068" r:id="rId12">
+        <oleObject progId="PBrush" shapeId="2073" r:id="rId12">
           <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>790575</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>847725</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>1190625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2068" r:id="rId12"/>
+        <oleObject progId="PBrush" shapeId="2073" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2069" r:id="rId14">
+        <oleObject progId="PBrush" shapeId="2077" r:id="rId14">
           <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>314325</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>733425</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>1609725</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>1828800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2069" r:id="rId14"/>
+        <oleObject progId="PBrush" shapeId="2077" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2070" r:id="rId16">
+        <oleObject progId="PBrush" shapeId="2089" r:id="rId16">
           <objectPr defaultSize="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>971550</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>1009650</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2070" r:id="rId16"/>
+        <oleObject progId="PBrush" shapeId="2089" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2073" r:id="rId18">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+        <oleObject progId="PBrush" shapeId="2092" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>952500</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>1000125</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>2638425</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>2533650</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2073" r:id="rId18"/>
+        <oleObject progId="PBrush" shapeId="2092" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2077" r:id="rId20">
+        <oleObject progId="PBrush" shapeId="2094" r:id="rId20">
           <objectPr defaultSize="0" autoPict="0" r:id="rId21">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>1514475</xdr:rowOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>1695450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2077" r:id="rId20"/>
+        <oleObject progId="PBrush" shapeId="2094" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2089" r:id="rId22">
+        <oleObject progId="PBrush" shapeId="2095" r:id="rId22">
           <objectPr defaultSize="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>942975</xdr:rowOff>
+                <xdr:colOff>790575</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>1219200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2089" r:id="rId22"/>
+        <oleObject progId="PBrush" shapeId="2095" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2092" r:id="rId24">
+        <oleObject progId="PBrush" shapeId="2097" r:id="rId24">
           <objectPr defaultSize="0" autoPict="0" r:id="rId25">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>1685925</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>2276475</xdr:rowOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>2133600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2092" r:id="rId24"/>
+        <oleObject progId="PBrush" shapeId="2097" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2094" r:id="rId26">
+        <oleObject progId="PBrush" shapeId="2112" r:id="rId26">
           <objectPr defaultSize="0" autoPict="0" r:id="rId27">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>1571625</xdr:rowOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>952500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2094" r:id="rId26"/>
+        <oleObject progId="PBrush" shapeId="2112" r:id="rId26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2095" r:id="rId28">
-          <objectPr defaultSize="0" r:id="rId29">
+        <oleObject progId="PBrush" shapeId="2113" r:id="rId28">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId29">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>790575</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>1343025</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>1847850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2095" r:id="rId28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2097" r:id="rId30">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId31">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>1943100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2097" r:id="rId30"/>
+        <oleObject progId="PBrush" shapeId="2113" r:id="rId28"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/fuentes/contenidos/grado08/guion09/SolicitudGrafica_MA_08_09_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion09/SolicitudGrafica_MA_08_09_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="213">
   <si>
     <t>Fecha:</t>
   </si>
@@ -611,12 +611,6 @@
     <t>Las letras deben estar en cursiva, las mayúsculas son los nombres de los puntos, tener cuidado con poner las mismas líneas que van en la mitad de algunas de las líneas de los triángulos de arriba.</t>
   </si>
   <si>
-    <t>Letras rojas en cursiva, son el nombre de los puntos, NO agregar cotas.</t>
-  </si>
-  <si>
-    <t>Las letras deben ir en cursiva, son nombres de los puntos, NO agregar cotas.</t>
-  </si>
-  <si>
     <t>Las letras deben ir en cursiva, las mayúsculas son los nombres de los puntos, las minúsculas son la medida de los lados, agregar cotas.</t>
   </si>
   <si>
@@ -632,22 +626,7 @@
     <t>Los triángulos y los cuadrilateros</t>
   </si>
   <si>
-    <t>Las letras deben estar en cursiva, las mayúsculas son los nombres de los puntos, las letras minúsculas son la medida de los lados por favor agregar cotas.</t>
-  </si>
-  <si>
     <t>Dejar las letras en cursiva, tener cuidado de dejar las mismas letras griegas.</t>
-  </si>
-  <si>
-    <t>Dejar las letras en cursiva y mayúscula.</t>
-  </si>
-  <si>
-    <t>letras en cursiva, tener cuidad con la línea roja que se resalta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">letras en cursiva, tener cuidado con la línea roja que se resalta </t>
-  </si>
-  <si>
-    <t>letras en cursiva, tener cuidad con las líneas rojas que se resaltan</t>
   </si>
   <si>
     <t>Por favor agregar a la recta que pasa por le punto p el nombre: l, en cursiva y minúscula.</t>
@@ -694,12 +673,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Los números decimales se deben separar con coma y no con punto, así: AB = 4,77   CB = 8,3 …
-Las letras de los vértices (A,  B,  C)y de la medida de los lados (AB) van en cursivas.
-</t>
-  </si>
-  <si>
     <t>Poner la letra γ para identificar el ángulo del vértice C, dejar todas las letras en cursiva.</t>
+  </si>
+  <si>
+    <t>OJO imagen aprovecha de 3°ESO-Matemáticas aplicadas - Los triángulos y la semejanza - sección 3: Los triángulos semejantes</t>
+  </si>
+  <si>
+    <t>OJO imagen aprovecha de 3°ESO-Matemáticas aplicadas - Los triángulos y la semejanza - sección 4: Los triángulos rectángulos</t>
   </si>
 </sst>
 </file>
@@ -1956,67 +1936,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3379990</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2004060</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16365682" y="8814955"/>
-          <a:ext cx="3391535" cy="2004060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>36739</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>50346</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>2133600</xdr:rowOff>
+          <xdr:colOff>246289</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>2079171</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2057,23 +1990,23 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>181841</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>277092</xdr:rowOff>
+      <xdr:colOff>14844</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2130136</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1907252</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133548</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3369871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPr id="9" name="Imagen 8" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2087,102 +2020,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16547523" y="13438910"/>
-          <a:ext cx="1948295" cy="1630160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2545773</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>11084</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22514</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16253114" y="15214023"/>
-          <a:ext cx="4379595" cy="3295650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>430300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3023754</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16486910" y="18539113"/>
-          <a:ext cx="4565015" cy="2971800"/>
+          <a:off x="16384237" y="11035393"/>
+          <a:ext cx="4364132" cy="3301835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2200,15 +2039,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>401411</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>68037</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>2686050</xdr:rowOff>
+          <xdr:colOff>537891</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>3360965</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2249,15 +2088,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>233795</xdr:rowOff>
+      <xdr:colOff>220188</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>451508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>154305</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1435215</xdr:rowOff>
+      <xdr:colOff>235948</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1652928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2265,7 +2104,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2279,8 +2118,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16504227" y="24626454"/>
-          <a:ext cx="3440430" cy="1201420"/>
+          <a:off x="16589581" y="18412937"/>
+          <a:ext cx="3431153" cy="1201420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2296,15 +2135,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>517072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3226955</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2593340</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>301419</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3110412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2312,7 +2151,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2326,8 +2165,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16365682" y="26124477"/>
-          <a:ext cx="3238500" cy="2593340"/>
+          <a:off x="16859250" y="20846143"/>
+          <a:ext cx="3226955" cy="2593340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2343,15 +2182,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>399300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1524000</xdr:rowOff>
+      <xdr:colOff>644228</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1823357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2359,7 +2198,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2373,102 +2212,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16365682" y="28904045"/>
-          <a:ext cx="3823970" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>40005</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2200910</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16573500" y="63607950"/>
-          <a:ext cx="4116705" cy="1858010"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>680085</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>2882265</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Imagen 43" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16535400" y="65817750"/>
-          <a:ext cx="3956685" cy="2710815"/>
+          <a:off x="16614321" y="23785286"/>
+          <a:ext cx="3814693" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2486,66 +2231,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:colOff>69395</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>204109</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>1085850</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2070" name="Object 22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2070"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>1190625</xdr:rowOff>
+          <xdr:colOff>136070</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>1204234</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2588,15 +2282,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
+          <xdr:colOff>134712</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>83004</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>1828800</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>421823</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>1597479</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2637,19 +2331,254 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>254635</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1278890</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812527</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1319712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="51" name="Imagen 50" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16668750" y="62511215"/>
+          <a:ext cx="3928563" cy="1183640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>308429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1465035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2812597</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2481942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagen 52" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16677822" y="63840178"/>
+          <a:ext cx="2504168" cy="2527300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2648857</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81189</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2603498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagen 53" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16364857" y="66529856"/>
+          <a:ext cx="3501118" cy="2530928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371928</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2308678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2723696</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2718707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagen 64" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16741321" y="71514607"/>
+          <a:ext cx="2351768" cy="2736850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2825751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428535</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1227365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagen 66" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16587108" y="74358501"/>
+          <a:ext cx="3626213" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420688</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>269875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3119438</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2582545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Imagen 67" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2667,478 +2596,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16922750" y="73850500"/>
-          <a:ext cx="3937635" cy="1183640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2686050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Imagen 52" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17367250" y="75406250"/>
-          <a:ext cx="2517775" cy="2527300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2603500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>720725</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>2413000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Imagen 53" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16986250" y="77851000"/>
-          <a:ext cx="3514725" cy="2540000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>2571750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>2489200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagen 54" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17621250" y="80549750"/>
-          <a:ext cx="2555875" cy="2520950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1555750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Imagen 55" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16795750" y="83121500"/>
-          <a:ext cx="4216400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1555750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Imagen 57" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16986250" y="84836000"/>
-          <a:ext cx="4216400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Imagen 59" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16954500" y="86677500"/>
-          <a:ext cx="3698875" cy="1337310"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1651000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Imagen 61" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16795750" y="87979250"/>
-          <a:ext cx="4216400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1365250</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2895600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Imagen 64" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17716500" y="89852500"/>
-          <a:ext cx="2365375" cy="2736850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>591820</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1390650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Imagen 66" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16732250" y="92964000"/>
-          <a:ext cx="3639820" cy="1231900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>2534920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Imagen 67" descr="C:\Users\MIGUEL MUÑOZ\AppData\Local\Temp\geogebra.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17081500" y="94742000"/>
-          <a:ext cx="2701925" cy="2312670"/>
+          <a:off x="16803688" y="76112688"/>
+          <a:ext cx="2698750" cy="2312670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3156,15 +2615,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>290513</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>280987</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>1009650</xdr:rowOff>
+          <xdr:colOff>185738</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>1223962</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3202,67 +2661,20 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2587625</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1678940</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Imagen 70"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17129125" y="98872675"/>
-          <a:ext cx="1809750" cy="1485265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:colOff>365125</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>90488</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>2638425</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>2533650</xdr:rowOff>
+          <xdr:colOff>2051050</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>2366963</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3300,69 +2712,18 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>1695450</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2094" name="Object 46" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2094"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>231775</xdr:rowOff>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3305175</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1857375</xdr:rowOff>
+      <xdr:colOff>2701925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1873249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3370,7 +2731,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3384,7 +2745,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17062450" y="105356025"/>
+          <a:off x="16459200" y="82956399"/>
           <a:ext cx="2593975" cy="1625600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3403,15 +2764,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:colOff>41276</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>447674</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>1219200</xdr:rowOff>
+          <xdr:colOff>766763</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>1504949</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3454,15 +2815,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:colOff>131762</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>39688</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>2133600</xdr:rowOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>488949</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>1982788</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3503,62 +2864,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2016125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2365375</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1390650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Imagen 78"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000">
-          <a:off x="17335500" y="111198025"/>
-          <a:ext cx="1171575" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>809626</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14560</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>34019</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5158060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3568,7 +2882,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3582,8 +2896,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16446501" y="30765750"/>
-          <a:ext cx="9080500" cy="5205685"/>
+          <a:off x="16519073" y="25502054"/>
+          <a:ext cx="9109982" cy="5196613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3605,15 +2919,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>242209</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>5048487</xdr:rowOff>
+      <xdr:colOff>432709</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5089308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3623,7 +2937,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3637,8 +2951,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16516351" y="36118801"/>
-          <a:ext cx="6134100" cy="4972286"/>
+          <a:off x="16611602" y="30855558"/>
+          <a:ext cx="6096000" cy="4972286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3660,15 +2974,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>185055</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>5143500</xdr:rowOff>
+      <xdr:colOff>23130</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5116286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3678,7 +2992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3692,8 +3006,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16554450" y="41281350"/>
-          <a:ext cx="8296275" cy="5105400"/>
+          <a:off x="16554448" y="35947350"/>
+          <a:ext cx="8233682" cy="5105400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3715,15 +3029,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5102678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>620759</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>5010150</xdr:rowOff>
+      <xdr:colOff>525509</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4533899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3733,7 +3047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3747,8 +3061,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16840201" y="46824900"/>
-          <a:ext cx="4430758" cy="4629150"/>
+          <a:off x="16731344" y="41039142"/>
+          <a:ext cx="4408986" cy="4629150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3770,15 +3084,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>185056</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>5076825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21770</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5022397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3788,7 +3102,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3802,8 +3116,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16459200" y="51701700"/>
-          <a:ext cx="4933950" cy="5019675"/>
+          <a:off x="16554449" y="46335043"/>
+          <a:ext cx="4912178" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3827,15 +3141,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:colOff>195943</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>952500</xdr:rowOff>
+          <xdr:colOff>119743</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>1047750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3876,15 +3190,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2802890</xdr:rowOff>
+      <xdr:colOff>657496</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2734854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3892,7 +3206,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3906,8 +3220,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16764000" y="58388250"/>
-          <a:ext cx="3596640" cy="2593340"/>
+          <a:off x="16859249" y="52855585"/>
+          <a:ext cx="3583033" cy="2593340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3925,15 +3239,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:colOff>285749</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>129268</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>1847850</xdr:rowOff>
+          <xdr:colOff>180974</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>1738993</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3971,6 +3285,116 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>711654</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16627929" y="57571822"/>
+          <a:ext cx="4698546" cy="1642382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2193927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16519072" y="69355607"/>
+          <a:ext cx="3415392" cy="2044249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4689,9 +4113,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4225,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4" s="87"/>
       <c r="E4" s="5"/>
@@ -5098,16 +4522,14 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="64" t="s">
-        <v>194</v>
-      </c>
+      <c r="J12" s="64"/>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
@@ -5148,7 +4570,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
@@ -5183,7 +4605,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -5191,7 +4613,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
@@ -5225,7 +4647,9 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="66"/>
+      <c r="J15" s="66" t="s">
+        <v>195</v>
+      </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
@@ -5266,14 +4690,16 @@
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="67"/>
+      <c r="J16" s="67" t="s">
+        <v>196</v>
+      </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
@@ -5308,7 +4734,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K17"/>
       <c r="O17" s="2" t="str">
@@ -5316,7 +4742,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -5351,7 +4777,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
@@ -5359,7 +4785,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
@@ -5394,7 +4820,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
@@ -5402,7 +4828,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
@@ -5437,7 +4863,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="K20" s="66"/>
       <c r="O20" s="2" t="str">
@@ -5451,7 +4877,7 @@
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5479,9 +4905,7 @@
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="66" t="s">
-        <v>214</v>
-      </c>
+      <c r="J21" s="66"/>
       <c r="K21"/>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
@@ -5522,16 +4946,14 @@
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="63" t="s">
-        <v>215</v>
-      </c>
+      <c r="J22" s="63"/>
       <c r="K22" s="69"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG14</v>
@@ -5565,16 +4987,14 @@
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="64" t="s">
-        <v>216</v>
-      </c>
+      <c r="J23" s="64"/>
       <c r="K23" s="64"/>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG15</v>
@@ -5615,7 +5035,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG16</v>
@@ -5652,7 +5072,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG17</v>
@@ -5686,10 +5106,12 @@
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="63"/>
+      <c r="J26" s="63" t="s">
+        <v>211</v>
+      </c>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG18</v>
@@ -5727,7 +5149,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG19</v>
@@ -5764,7 +5186,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG20</v>
@@ -5798,12 +5220,10 @@
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="64" t="s">
-        <v>201</v>
-      </c>
+      <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG21</v>
@@ -5838,11 +5258,11 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J30" s="64" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG22</v>
@@ -5876,10 +5296,12 @@
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J31" s="64"/>
+      <c r="J31" s="64" t="s">
+        <v>199</v>
+      </c>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG23</v>
@@ -5913,10 +5335,12 @@
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="64"/>
+      <c r="J32" s="64" t="s">
+        <v>212</v>
+      </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG24</v>
@@ -5950,7 +5374,9 @@
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="64"/>
+      <c r="J33" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:15" s="11" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5987,7 +5413,9 @@
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="64"/>
+      <c r="J34" s="64" t="s">
+        <v>201</v>
+      </c>
       <c r="K34"/>
       <c r="O34" s="2"/>
     </row>
@@ -6026,12 +5454,12 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J35" s="63" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG27</v>
@@ -6065,13 +5493,11 @@
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="63" t="s">
-        <v>202</v>
-      </c>
+      <c r="J36" s="63"/>
       <c r="K36"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG28</v>
@@ -6108,7 +5534,7 @@
       <c r="J37" s="63"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG29</v>
@@ -6142,12 +5568,10 @@
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="70" t="s">
-        <v>203</v>
-      </c>
+      <c r="J38" s="70"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG30</v>
@@ -6181,12 +5605,10 @@
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="63" t="s">
-        <v>205</v>
-      </c>
+      <c r="J39" s="63"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG31</v>
@@ -6220,9 +5642,7 @@
         <f ca="1">IF(OR($B40&lt;&gt;"",$J40&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J40" s="63" t="s">
-        <v>204</v>
-      </c>
+      <c r="J40" s="63"/>
       <c r="K40"/>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6231,7 +5651,7 @@
         <v>IMG32</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C41" s="20" t="str">
         <f t="shared" si="0"/>
@@ -6260,463 +5680,383 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J41" s="63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG33</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B42" s="62"/>
       <c r="C42" s="20" t="str">
         <f t="shared" ref="C42:C73" si="7">IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D42" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG33_small</v>
+        <v/>
       </c>
       <c r="G42" s="13" t="str">
         <f ca="1">IF($F42&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H42" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG33_zoom</v>
+        <v/>
       </c>
       <c r="I42" s="13" t="str">
         <f ca="1">IF(OR($B42&lt;&gt;"",$J42&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J42" s="63" t="s">
-        <v>207</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG34</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B43" s="62"/>
       <c r="C43" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG34_small</v>
+        <v/>
       </c>
       <c r="G43" s="13" t="str">
         <f ca="1">IF($F43&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H43" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG34_zoom</v>
+        <v/>
       </c>
       <c r="I43" s="13" t="str">
         <f ca="1">IF(OR($B43&lt;&gt;"",$J43&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J43" s="63" t="s">
-        <v>208</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG35</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B44" s="62"/>
       <c r="C44" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG35_small</v>
+        <v/>
       </c>
       <c r="G44" s="13" t="str">
         <f ca="1">IF($F44&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H44" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG35_zoom</v>
+        <v/>
       </c>
       <c r="I44" s="13" t="str">
         <f ca="1">IF(OR($B44&lt;&gt;"",$J44&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>209</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG36</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B45" s="62"/>
       <c r="C45" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG36_small</v>
+        <v/>
       </c>
       <c r="G45" s="13" t="str">
         <f ca="1">IF($F45&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H45" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG36_zoom</v>
+        <v/>
       </c>
       <c r="I45" s="13" t="str">
         <f ca="1">IF(OR($B45&lt;&gt;"",$J45&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG37</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B46" s="62"/>
       <c r="C46" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D46" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG37_small</v>
+        <v/>
       </c>
       <c r="G46" s="13" t="str">
         <f ca="1">IF($F46&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H46" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG37_zoom</v>
+        <v/>
       </c>
       <c r="I46" s="13" t="str">
         <f ca="1">IF(OR($B46&lt;&gt;"",$J46&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG38</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B47" s="62"/>
       <c r="C47" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D47" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG38_small</v>
+        <v/>
       </c>
       <c r="G47" s="13" t="str">
         <f ca="1">IF($F47&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H47" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG38_zoom</v>
+        <v/>
       </c>
       <c r="I47" s="13" t="str">
         <f ca="1">IF(OR($B47&lt;&gt;"",$J47&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG39</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B48" s="62"/>
       <c r="C48" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D48" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG39_small</v>
+        <v/>
       </c>
       <c r="G48" s="13" t="str">
         <f ca="1">IF($F48&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H48" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG39_zoom</v>
+        <v/>
       </c>
       <c r="I48" s="13" t="str">
         <f ca="1">IF(OR($B48&lt;&gt;"",$J48&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG40</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B49" s="62"/>
       <c r="C49" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG40_small</v>
+        <v/>
       </c>
       <c r="G49" s="13" t="str">
         <f ca="1">IF($F49&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H49" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG40_zoom</v>
+        <v/>
       </c>
       <c r="I49" s="13" t="str">
         <f ca="1">IF(OR($B49&lt;&gt;"",$J49&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG41</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B50" s="62"/>
       <c r="C50" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
       <c r="F50" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG41_small</v>
+        <v/>
       </c>
       <c r="G50" s="13" t="str">
         <f ca="1">IF($F50&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H50" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG41_zoom</v>
+        <v/>
       </c>
       <c r="I50" s="13" t="str">
         <f ca="1">IF(OR($B50&lt;&gt;"",$J50&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
-        <v>IMG42</v>
-      </c>
-      <c r="B51" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B51" s="62"/>
       <c r="C51" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG42_small</v>
+        <v/>
       </c>
       <c r="G51" s="13" t="str">
         <f ca="1">IF($F51&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E51,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H51" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG42_zoom</v>
+        <v/>
       </c>
       <c r="I51" s="13" t="str">
         <f ca="1">IF(OR($B51&lt;&gt;"",$J51&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E51,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E51,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG43</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B52" s="62"/>
       <c r="C52" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG43_small</v>
+        <v/>
       </c>
       <c r="G52" s="13" t="str">
         <f ca="1">IF($F52&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E52,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H52" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG43_zoom</v>
+        <v/>
       </c>
       <c r="I52" s="13" t="str">
         <f ca="1">IF(OR($B52&lt;&gt;"",$J52&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E52,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E52,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>IMG44</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>210</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B53" s="62"/>
       <c r="C53" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D53" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_08_09_CO_IMG44_small</v>
+        <v/>
       </c>
       <c r="G53" s="13" t="str">
         <f ca="1">IF($F53&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E53,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H53" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_08_09_CO_IMG44_zoom</v>
+        <v/>
       </c>
       <c r="I53" s="13" t="str">
         <f ca="1">IF(OR($B53&lt;&gt;"",$J53&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E53,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E53,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J53" s="63" t="s">
-        <v>212</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J53" s="63"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6747,7 +6087,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6778,7 +6118,7 @@
       <c r="J55" s="63"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6809,7 +6149,7 @@
       <c r="J56" s="63"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6840,7 +6180,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6871,7 +6211,7 @@
       <c r="J58" s="63"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6902,7 +6242,7 @@
       <c r="J59" s="63"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6962,7 +6302,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J61" s="63" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K61" s="65"/>
     </row>
@@ -8500,15 +7840,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>2133600</xdr:rowOff>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>2076450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8525,15 +7865,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>2686050</xdr:rowOff>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>3362325</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8545,169 +7885,69 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2070" r:id="rId10">
+        <oleObject progId="PBrush" shapeId="2073" r:id="rId10">
           <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>1085850</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>1200150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2070" r:id="rId10"/>
+        <oleObject progId="PBrush" shapeId="2073" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2073" r:id="rId12">
+        <oleObject progId="PBrush" shapeId="2077" r:id="rId12">
           <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>1190625</xdr:rowOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>1600200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2073" r:id="rId12"/>
+        <oleObject progId="PBrush" shapeId="2077" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2077" r:id="rId14">
+        <oleObject progId="PBrush" shapeId="2089" r:id="rId14">
           <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>314325</xdr:rowOff>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>1828800</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2077" r:id="rId14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2089" r:id="rId16">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>1009650</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2089" r:id="rId16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2092" r:id="rId18">
-          <objectPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>952500</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>2638425</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>2533650</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2092" r:id="rId18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2094" r:id="rId20">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>1695450</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2094" r:id="rId20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2095" r:id="rId22">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>790575</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>1219200</xdr:rowOff>
               </to>
             </anchor>
@@ -8715,82 +7955,132 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2095" r:id="rId22"/>
+        <oleObject progId="PBrush" shapeId="2089" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2097" r:id="rId24">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+        <oleObject progId="PBrush" shapeId="2092" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>2133600</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>2047875</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>2371725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2097" r:id="rId24"/>
+        <oleObject progId="PBrush" shapeId="2092" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2112" r:id="rId26">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
+        <oleObject progId="PBrush" shapeId="2095" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>447675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>952500</xdr:rowOff>
+                <xdr:colOff>771525</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>1504950</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2112" r:id="rId26"/>
+        <oleObject progId="PBrush" shapeId="2095" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2113" r:id="rId28">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId29">
+        <oleObject progId="PBrush" shapeId="2097" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>1847850</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>1981200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2113" r:id="rId28"/>
+        <oleObject progId="PBrush" shapeId="2097" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2112" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>1047750</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2112" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2113" r:id="rId24">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>1743075</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2113" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
